--- a/tsconfig.xlsx
+++ b/tsconfig.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="76">
   <si>
     <t>outDir</t>
   </si>
@@ -154,13 +154,103 @@
   </si>
   <si>
     <t>[es2017, dom]</t>
+  </si>
+  <si>
+    <t>5.7.3</t>
+  </si>
+  <si>
+    <t>5.5.4</t>
+  </si>
+  <si>
+    <t>5.4.5</t>
+  </si>
+  <si>
+    <t>5.1.6</t>
+  </si>
+  <si>
+    <t>4.9.5</t>
+  </si>
+  <si>
+    <t>4.7.4</t>
+  </si>
+  <si>
+    <t>4.6.4</t>
+  </si>
+  <si>
+    <t>4.3.5</t>
+  </si>
+  <si>
+    <t>Typescript version</t>
+  </si>
+  <si>
+    <t>Angular version (cli)</t>
+  </si>
+  <si>
+    <t>19.1.4</t>
+  </si>
+  <si>
+    <t>18.2.12</t>
+  </si>
+  <si>
+    <t>17.3.11</t>
+  </si>
+  <si>
+    <t>16.2.16</t>
+  </si>
+  <si>
+    <t>15.2.11</t>
+  </si>
+  <si>
+    <t>14.2.13</t>
+  </si>
+  <si>
+    <t>13.3.11</t>
+  </si>
+  <si>
+    <t>12.2.18</t>
+  </si>
+  <si>
+    <t>11.1.2</t>
+  </si>
+  <si>
+    <t>4.1.2</t>
+  </si>
+  <si>
+    <t>10.2.1</t>
+  </si>
+  <si>
+    <t>4.0.2</t>
+  </si>
+  <si>
+    <t>9.1.13</t>
+  </si>
+  <si>
+    <t>3.8.3</t>
+  </si>
+  <si>
+    <t>8.3.29</t>
+  </si>
+  <si>
+    <t>3.5.3</t>
+  </si>
+  <si>
+    <t>7.3.10</t>
+  </si>
+  <si>
+    <t>3.2.2</t>
+  </si>
+  <si>
+    <t>6.1.0</t>
+  </si>
+  <si>
+    <t>2.9.2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,8 +278,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -199,6 +294,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -227,10 +328,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,13 +646,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,174 +665,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B1" s="5">
+      <c r="A1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="O2" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="5">
-        <v>18</v>
-      </c>
-      <c r="D1" s="5">
-        <v>17</v>
-      </c>
-      <c r="E1" s="5">
-        <v>16</v>
-      </c>
-      <c r="F1" s="5">
-        <v>15</v>
-      </c>
-      <c r="G1" s="5">
-        <v>14</v>
-      </c>
-      <c r="H1" s="5">
-        <v>13</v>
-      </c>
-      <c r="I1" s="5">
-        <v>12</v>
-      </c>
-      <c r="J1" s="5">
-        <v>11</v>
-      </c>
-      <c r="K1" s="5">
-        <v>10</v>
-      </c>
-      <c r="L1" s="5">
-        <v>9</v>
-      </c>
-      <c r="M1" s="5">
-        <v>8</v>
-      </c>
-      <c r="N1" s="5">
-        <v>7</v>
-      </c>
-      <c r="O1" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="N4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>22</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>22</v>
@@ -741,7 +873,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>22</v>
@@ -764,11 +896,16 @@
       <c r="H7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>22</v>
@@ -795,7 +932,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>22</v>
@@ -818,16 +955,11 @@
       <c r="H9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>22</v>
-      </c>
+      <c r="I9" s="4"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -859,7 +991,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>22</v>
@@ -868,12 +1000,30 @@
         <v>22</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
@@ -887,7 +1037,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>22</v>
@@ -901,137 +1051,116 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="M15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>22</v>
       </c>
@@ -1059,173 +1188,161 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="L18" s="4" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>29</v>
+        <v>13</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>23</v>
@@ -1246,169 +1363,181 @@
         <v>35</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>43</v>
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N24" s="3"/>
+        <v>42</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O26" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>22</v>
@@ -1443,58 +1572,93 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="B32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="L32" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+      <c r="L33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M33" s="4" t="s">
+      <c r="L34" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>22</v>
       </c>
     </row>
